--- a/biology/Médecine/Droit_médical/Droit_médical.xlsx
+++ b/biology/Médecine/Droit_médical/Droit_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Droit_m%C3%A9dical</t>
+          <t>Droit_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de droit médical peut être définie comme étant   l'ensemble des normes juridiques (normes constitutionnelles, législatives, réglementaires, jurisprudentielles) qui régissent et encadrent les droits et les obligations des professionnels de santé à l'égard de leurs patients.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Droit_m%C3%A9dical</t>
+          <t>Droit_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Contexte et portée de la notion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été définie pour la première fois en 1956 par René et Jean Savatier, dans leur ouvrage Traité de droit Médical[1] comme l’étude des relations juridiques où est engagé le médecin[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été définie pour la première fois en 1956 par René et Jean Savatier, dans leur ouvrage Traité de droit Médical comme l’étude des relations juridiques où est engagé le médecin.
 Le droit médical fait partie du droit privé, puisqu'il envisage la responsabilité civile ou pénale du praticien (médecin, médecin spécialiste, infirmier, sage-femme, dentiste, etc.) ou de l'établissement de santé privé quand il commet une faute, mais aussi du droit public puisqu'il concerne la responsabilité administrative du centre hospitalier ou de l'un de ses agents.
 C'est un droit qui vise à l'indemnisation de la victime, mais qui a des effets en matière de prévention des dommages et de création/diffusion de bonnes pratiques médicales.
 La notion de droit médical est peu connue par les théoriciens du droit (ainsi, les dictionnaires de vocabulaire juridique l'ignorent), même si elle correspond à une branche du droit parfaitement circonscrite et connue par les praticiens de la médecine ainsi que par les professeurs et facultés de droit (diplômes universitaires).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Droit_m%C3%A9dical</t>
+          <t>Droit_médical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
